--- a/RawData/AnApplicationStudyOfAutohydrolysisPretreatmentPriorToPoplar.xlsx
+++ b/RawData/AnApplicationStudyOfAutohydrolysisPretreatmentPriorToPoplar.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93530942-A009-4890-8AD4-CF3022F7200E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D447B00B-5DD8-4C2B-A0A6-B55E18F21BD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
   <si>
     <t>mol proton/L</t>
   </si>
@@ -216,6 +216,14 @@
   </si>
   <si>
     <t>mono</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acid Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1743,29 +1751,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECBB35B-4B8C-4CA0-B900-90BAA4E51C79}">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="24" max="24" width="26.21875" customWidth="1"/>
+    <col min="25" max="25" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1776,73 +1784,76 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>41</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>42</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>43</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>44</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>46</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>41</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>42</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>43</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>44</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>45</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>47</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>35</v>
       </c>
@@ -1852,38 +1863,41 @@
       <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>0</v>
+      <c r="D3" t="s">
+        <v>56</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
         <v>320</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>15</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>20</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>19.48</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.36590909090909091</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>50</v>
       </c>
@@ -1893,38 +1907,41 @@
       <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" t="s">
+        <v>56</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
         <v>320</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>30</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>20</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>19.48</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>0.39431818181818185</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>80</v>
       </c>
@@ -1934,38 +1951,41 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="D5" t="s">
+        <v>56</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
         <v>320</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>60</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>20</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>19.48</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>0.53636363636363638</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>60</v>
       </c>
@@ -1975,38 +1995,41 @@
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>0</v>
+      <c r="D6" t="s">
+        <v>56</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
         <v>320</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>30</v>
       </c>
       <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>19.48</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>0.95909090909090922</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>55</v>
       </c>
@@ -2016,38 +2039,41 @@
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7">
-        <v>0</v>
+      <c r="D7" t="s">
+        <v>56</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
         <v>320</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>20</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>35</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>19.48</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1.5170454545454544</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>0.125</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>90</v>
       </c>
@@ -2057,38 +2083,41 @@
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8">
-        <v>0</v>
+      <c r="D8" t="s">
+        <v>56</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
         <v>320</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>60</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>30</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>19.48</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>1.6306818181818181</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>0.125</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>60</v>
       </c>
@@ -2098,38 +2127,41 @@
       <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9">
-        <v>0</v>
+      <c r="D9" t="s">
+        <v>56</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
         <v>320</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>20</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>40</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>19.48</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>4.0181818181818185</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>90</v>
       </c>
@@ -2139,38 +2171,41 @@
       <c r="C10">
         <v>4</v>
       </c>
-      <c r="D10">
-        <v>0</v>
+      <c r="D10" t="s">
+        <v>56</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
         <v>320</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>55</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>35</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>19.48</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>4.8954545454545455</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>0.35000000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>80</v>
       </c>
@@ -2180,38 +2215,41 @@
       <c r="C11">
         <v>4</v>
       </c>
-      <c r="D11">
-        <v>0</v>
+      <c r="D11" t="s">
+        <v>56</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
         <v>320</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>40</v>
       </c>
       <c r="J11">
+        <v>40</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>19.48</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>11.999999999999998</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>135</v>
       </c>
@@ -2221,38 +2259,41 @@
       <c r="C12">
         <v>4</v>
       </c>
-      <c r="D12">
-        <v>0</v>
+      <c r="D12" t="s">
+        <v>56</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
         <v>320</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>100</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>35</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>19.48</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>11.602272727272727</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>100</v>
       </c>
@@ -2262,34 +2303,37 @@
       <c r="C13">
         <v>4</v>
       </c>
-      <c r="D13">
-        <v>0</v>
+      <c r="D13" t="s">
+        <v>56</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
         <v>320</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>60</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>40</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>19.48</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>21.475000000000001</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>1.4749999999999999</v>
       </c>
     </row>
